--- a/video_data.xlsx
+++ b/video_data.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">h264_qsv</t>
   </si>
   <si>
-    <t xml:space="preserve">BebasNeue</t>
+    <t xml:space="preserve">Bangers</t>
   </si>
   <si>
     <t xml:space="preserve">white</t>
@@ -439,7 +439,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,11 +549,17 @@
         <v>23</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K10" s="8"/>
